--- a/default_parameters.xlsx
+++ b/default_parameters.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/myrepo/MetMiner_pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/myrepo/metminer_snakemake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CADB74-1B85-C346-A140-F34FBC81965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF9F3BE-3FCD-4249-AE63-EE1ACC3805D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39720" yWindow="4340" windowWidth="27640" windowHeight="16940" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="choise" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>process</t>
   </si>
@@ -138,13 +139,115 @@
   </si>
   <si>
     <t>injection.order</t>
+  </si>
+  <si>
+    <t>remove outlier</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>tidymass</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>customized</t>
+  </si>
+  <si>
+    <t>by_witch</t>
+  </si>
+  <si>
+    <t>according_to_na</t>
+  </si>
+  <si>
+    <t>pc_sd</t>
+  </si>
+  <si>
+    <t>pc_mad</t>
+  </si>
+  <si>
+    <t>accordint_to_distance</t>
+  </si>
+  <si>
+    <t>according_to_na|pc_sd</t>
+  </si>
+  <si>
+    <t>according_to_na|pc_sd|pc_mad</t>
+  </si>
+  <si>
+    <t>according_to_na|pc_sd|pc_mad|accordint_to_distance</t>
+  </si>
+  <si>
+    <t>pc_sd|pc_mad|accordint_to_distance</t>
+  </si>
+  <si>
+    <t>pc_mad|accordint_to_distance</t>
+  </si>
+  <si>
+    <t>pc_sd|pc_mad</t>
+  </si>
+  <si>
+    <t>pc_sd|accordint_to_distance</t>
+  </si>
+  <si>
+    <t>pos_sid</t>
+  </si>
+  <si>
+    <t>neg_sid</t>
+  </si>
+  <si>
+    <t>QC_01|QC_03</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>Which column in sample_info is used to calculate the missing value rate?</t>
+  </si>
+  <si>
+    <t>missing value in QC sample</t>
+  </si>
+  <si>
+    <t>missing value in selected tag</t>
+  </si>
+  <si>
+    <t>In missing value rate figure (variable), samples will be colored by witch tag</t>
+  </si>
+  <si>
+    <t>In missing value rate figure (variable), samples will be ordered by witch tag</t>
+  </si>
+  <si>
+    <t>y-axies percentage or number?</t>
+  </si>
+  <si>
+    <t>x-axies test</t>
+  </si>
+  <si>
+    <t>x-axies ticks</t>
+  </si>
+  <si>
+    <t>reversed order</t>
+  </si>
+  <si>
+    <t>method for outlier remove</t>
+  </si>
+  <si>
+    <t>for method == tidymass</t>
+  </si>
+  <si>
+    <t>for method == customized</t>
+  </si>
+  <si>
+    <t>samples in pca plot colored by witch tag?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +260,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,19 +633,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9AFBEB-5710-B84D-8EB7-307BB78CAD28}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="236" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +657,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -556,7 +672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -567,7 +683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -589,7 +705,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -600,7 +716,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -611,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -622,7 +738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -633,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -644,7 +760,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -655,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -666,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -677,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -688,7 +804,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -699,7 +815,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -710,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -721,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -732,7 +848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -742,8 +858,11 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -753,8 +872,11 @@
       <c r="C20">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -764,8 +886,11 @@
       <c r="C21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -775,8 +900,11 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -786,8 +914,11 @@
       <c r="C23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -797,8 +928,11 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -808,8 +942,11 @@
       <c r="C25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -819,8 +956,11 @@
       <c r="C26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -830,8 +970,201 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="rang: 0 -1" sqref="C20" xr:uid="{862B7B40-3E9F-314A-A8BE-DED11BB1BE85}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4C67ABA-81F2-1047-8D1A-CD03F484B1E7}">
+          <x14:formula1>
+            <xm:f>choise!$B$1:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F5D07612-FADB-E545-8C62-B8A8E9DC5893}">
+          <x14:formula1>
+            <xm:f>choise!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C24:C27 C11:C12 C17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C04C9AEC-9CED-1444-B28D-0FB95F13D25E}">
+          <x14:formula1>
+            <xm:f>choise!$D$1:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B484732B-2182-4245-BBAD-E15204D387BA}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/default_parameters.xlsx
+++ b/default_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/myrepo/metminer_snakemake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF9F3BE-3FCD-4249-AE63-EE1ACC3805D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82B267-C8DB-C847-BCAF-3B19BFC93950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22220" windowHeight="17160" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="102">
   <si>
     <t>process</t>
   </si>
@@ -241,6 +241,108 @@
   </si>
   <si>
     <t>samples in pca plot colored by witch tag?</t>
+  </si>
+  <si>
+    <t>rowmax</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>colmax</t>
+  </si>
+  <si>
+    <t>maxp</t>
+  </si>
+  <si>
+    <t>rng.seed</t>
+  </si>
+  <si>
+    <t>maxiter</t>
+  </si>
+  <si>
+    <t>ntree</t>
+  </si>
+  <si>
+    <t>decreasing</t>
+  </si>
+  <si>
+    <t>nPcs</t>
+  </si>
+  <si>
+    <t>maxSteps</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>minimun</t>
+  </si>
+  <si>
+    <t>bpca</t>
+  </si>
+  <si>
+    <t>svdImpute</t>
+  </si>
+  <si>
+    <t>ppca</t>
+  </si>
+  <si>
+    <t>impute mv</t>
+  </si>
+  <si>
+    <t>normalization</t>
+  </si>
+  <si>
+    <t>keep_scale</t>
+  </si>
+  <si>
+    <t>optimization</t>
+  </si>
+  <si>
+    <t>pqn_reference</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>svr</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>pqn</t>
+  </si>
+  <si>
+    <t>loess</t>
+  </si>
+  <si>
+    <t>rsd_cutoff</t>
   </si>
 </sst>
 </file>
@@ -633,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9AFBEB-5710-B84D-8EB7-307BB78CAD28}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,15 +1146,272 @@
         <v>67</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>362436069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="rang: 0 -1" sqref="C20" xr:uid="{862B7B40-3E9F-314A-A8BE-DED11BB1BE85}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48" xr:uid="{6F3F9594-B896-D24C-A122-6E07CEE57982}">
+      <formula1>"median,mean"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4C67ABA-81F2-1047-8D1A-CD03F484B1E7}">
           <x14:formula1>
             <xm:f>choise!$B$1:$B$3</xm:f>
@@ -1063,13 +1422,25 @@
           <x14:formula1>
             <xm:f>choise!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C24:C27 C11:C12 C17</xm:sqref>
+          <xm:sqref>C24:C27 C11:C12 C17 C41 C46:C47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C04C9AEC-9CED-1444-B28D-0FB95F13D25E}">
           <x14:formula1>
             <xm:f>choise!$D$1:$D$11</xm:f>
           </x14:formula1>
           <xm:sqref>C29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{506D02F9-6F36-B440-A079-B4AAC6674509}">
+          <x14:formula1>
+            <xm:f>choise!$E$1:$E$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42576D4C-F365-814D-A215-9C66DDCC1F11}">
+          <x14:formula1>
+            <xm:f>choise!$F$1:$F$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1079,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B484732B-2182-4245-BBAD-E15204D387BA}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1461,7 @@
     <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="b">
         <v>1</v>
       </c>
@@ -1100,8 +1471,14 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -1111,56 +1488,98 @@
       <c r="D2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
   </sheetData>

--- a/default_parameters.xlsx
+++ b/default_parameters.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/myrepo/metminer_snakemake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82B267-C8DB-C847-BCAF-3B19BFC93950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324CA856-72D0-4C4D-9D92-E8FD74621DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22220" windowHeight="17160" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
     <sheet name="choise" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
   <si>
     <t>process</t>
   </si>
@@ -198,9 +198,6 @@
     <t>neg_sid</t>
   </si>
   <si>
-    <t>QC_01|QC_03</t>
-  </si>
-  <si>
     <t>annotation</t>
   </si>
   <si>
@@ -343,6 +340,93 @@
   </si>
   <si>
     <t>rsd_cutoff</t>
+  </si>
+  <si>
+    <t>mutate_ms2</t>
+  </si>
+  <si>
+    <t>hilic</t>
+  </si>
+  <si>
+    <t>polarity</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>ms1.ms2.match.mz.tol</t>
+  </si>
+  <si>
+    <t>ms1.ms2.match.rt.tol</t>
+  </si>
+  <si>
+    <t>n_session</t>
+  </si>
+  <si>
+    <t>QC_01|QC_02|S_36</t>
+  </si>
+  <si>
+    <t>QC_03|S_36</t>
+  </si>
+  <si>
+    <t>ms1.match.ppm</t>
+  </si>
+  <si>
+    <t>ms2.match.ppm</t>
+  </si>
+  <si>
+    <t>mz.ppm.thr</t>
+  </si>
+  <si>
+    <t>ms2.match.tol</t>
+  </si>
+  <si>
+    <t>fraction.weight</t>
+  </si>
+  <si>
+    <t>dp.forward.weight</t>
+  </si>
+  <si>
+    <t>dp.reverse.weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove_fragment_intensity_cutoff	</t>
+  </si>
+  <si>
+    <t>rt.match.tol</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>ms1.match.weight</t>
+  </si>
+  <si>
+    <t>rt.match.weight</t>
+  </si>
+  <si>
+    <t>ms2.match.weight</t>
+  </si>
+  <si>
+    <t>total.score.tol</t>
+  </si>
+  <si>
+    <t>candidate.num</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>MoNA|Massbank|Respect|PlaSMA|KEGG|KNApSAcK|Ath_Cyc|Zma_Cyc|MetaboBASE|Orbitrap</t>
+  </si>
+  <si>
+    <t>MoNA|Massbank|ReSpect|PlaSMA|KEGG|KNApSAcK|Ath_Cyc|Zma_Cyc|MetaboBASE|Orbitrap</t>
   </si>
 </sst>
 </file>
@@ -735,17 +819,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9AFBEB-5710-B84D-8EB7-307BB78CAD28}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,14 +837,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -954,14 +1038,14 @@
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -971,11 +1055,11 @@
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
-        <v>0.2</v>
+      <c r="C20" s="2">
+        <v>0.3</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -985,11 +1069,11 @@
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
-        <v>0.5</v>
+      <c r="C21" s="2">
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -999,11 +1083,11 @@
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1013,11 +1097,11 @@
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1027,11 +1111,11 @@
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="b">
+      <c r="C24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1041,11 +1125,11 @@
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="b">
+      <c r="C25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1055,11 +1139,11 @@
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="b">
+      <c r="C26" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1069,11 +1153,11 @@
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="b">
+      <c r="C27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,11 +1167,11 @@
       <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1097,11 +1181,11 @@
       <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1111,11 +1195,11 @@
       <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
-        <v>53</v>
+      <c r="C30" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1125,11 +1209,11 @@
       <c r="B31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C31" t="s">
-        <v>53</v>
+      <c r="C31" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,264 +1223,517 @@
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>79</v>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2">
         <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2">
         <v>1500</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2">
         <v>362436069</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="b">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="C42" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C45" t="s">
-        <v>97</v>
+      <c r="C45" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="b">
+      <c r="C46" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="b">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50">
+        <v>93</v>
+      </c>
+      <c r="C50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52">
+        <v>88</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>101</v>
       </c>
-      <c r="C55">
+      <c r="B56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1748,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4C67ABA-81F2-1047-8D1A-CD03F484B1E7}">
           <x14:formula1>
             <xm:f>choise!$B$1:$B$3</xm:f>
@@ -1442,6 +1779,18 @@
           </x14:formula1>
           <xm:sqref>C45</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4417A17-4CFA-F642-AC48-DF302911A135}">
+          <x14:formula1>
+            <xm:f>choise!$G$1:$G$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C56 C71</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC47424D-4C3D-9F41-836A-2D6BA3686A6E}">
+          <x14:formula1>
+            <xm:f>choise!$H$1:$H$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C57</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1450,18 +1799,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B484732B-2182-4245-BBAD-E15204D387BA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="82.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="b">
         <v>1</v>
       </c>
@@ -1472,13 +1822,22 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -1489,13 +1848,19 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -1503,83 +1868,83 @@
         <v>42</v>
       </c>
       <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
   </sheetData>

--- a/default_parameters.xlsx
+++ b/default_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/myrepo/metminer_snakemake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324CA856-72D0-4C4D-9D92-E8FD74621DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA0B9A-6E44-E441-B346-4C44444C433C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="151">
   <si>
     <t>process</t>
   </si>
@@ -210,12 +210,6 @@
     <t>missing value in selected tag</t>
   </si>
   <si>
-    <t>In missing value rate figure (variable), samples will be colored by witch tag</t>
-  </si>
-  <si>
-    <t>In missing value rate figure (variable), samples will be ordered by witch tag</t>
-  </si>
-  <si>
     <t>y-axies percentage or number?</t>
   </si>
   <si>
@@ -423,10 +417,79 @@
     <t>all</t>
   </si>
   <si>
-    <t>MoNA|Massbank|Respect|PlaSMA|KEGG|KNApSAcK|Ath_Cyc|Zma_Cyc|MetaboBASE|Orbitrap</t>
-  </si>
-  <si>
     <t>MoNA|Massbank|ReSpect|PlaSMA|KEGG|KNApSAcK|Ath_Cyc|Zma_Cyc|MetaboBASE|Orbitrap</t>
+  </si>
+  <si>
+    <t>annotation filtering</t>
+  </si>
+  <si>
+    <t>Adduct_pos</t>
+  </si>
+  <si>
+    <t>Adduct_neg</t>
+  </si>
+  <si>
+    <t>multi_anno</t>
+  </si>
+  <si>
+    <t>redundancy</t>
+  </si>
+  <si>
+    <t>In missing value rate figure (variable)| samples will be colored by witch tag</t>
+  </si>
+  <si>
+    <t>In missing value rate figure (variable)| samples will be ordered by witch tag</t>
+  </si>
+  <si>
+    <t>(M+H)+|(M+H-H2O)+|(M+H-2H2O)+|(M+NH4)+|(M+Na)+|(M-H+2Na)+|(M-2H+3Na)+|(M+K)+|(M-H+2K)+|(M-2H+3K)+|(M+CH3CN+H)+|(M+CH3CN+Na)+|(2M+H)+|(2M+NH4)+|(2M+Na)+|(M+HCOO+2H)</t>
+  </si>
+  <si>
+    <t>(M-H)-|(M-H2O-H)-|(M+Na-2H)-|(M+K-2H)-|(M+NH4-2H)-|(2M-H)-|(M+F)-</t>
+  </si>
+  <si>
+    <t>keep all</t>
+  </si>
+  <si>
+    <t>keep highest total score</t>
+  </si>
+  <si>
+    <t>keep the first one</t>
+  </si>
+  <si>
+    <t>unclass</t>
+  </si>
+  <si>
+    <t>DAM</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>qvalue</t>
+  </si>
+  <si>
+    <t>log2fc</t>
+  </si>
+  <si>
+    <t>test.method</t>
+  </si>
+  <si>
+    <t>pls.method</t>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>wilcox-test</t>
+  </si>
+  <si>
+    <t>pls-da</t>
+  </si>
+  <si>
+    <t>opls-da</t>
   </si>
 </sst>
 </file>
@@ -819,15 +882,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9AFBEB-5710-B84D-8EB7-307BB78CAD28}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.33203125" bestFit="1" customWidth="1"/>
@@ -1070,7 +1133,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -1087,7 +1150,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1129,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1143,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1157,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1171,7 +1234,7 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1185,7 +1248,7 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,10 +1259,10 @@
         <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1210,10 +1273,10 @@
         <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1227,26 +1290,26 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2">
         <v>10</v>
@@ -1254,10 +1317,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2">
         <v>0.5</v>
@@ -1265,10 +1328,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2">
         <v>0.8</v>
@@ -1276,10 +1339,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2">
         <v>1500</v>
@@ -1287,10 +1350,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2">
         <v>362436069</v>
@@ -1298,10 +1361,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2">
         <v>10</v>
@@ -1309,10 +1372,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2">
         <v>100</v>
@@ -1320,10 +1383,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="b">
         <v>0</v>
@@ -1331,10 +1394,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2">
         <v>2</v>
@@ -1342,10 +1405,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2">
         <v>100</v>
@@ -1353,10 +1416,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2">
         <v>1E-4</v>
@@ -1364,21 +1427,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="b">
         <v>1</v>
@@ -1386,10 +1449,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C47" s="2" t="b">
         <v>1</v>
@@ -1397,21 +1460,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2">
         <v>0.5</v>
@@ -1419,10 +1482,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -1430,10 +1493,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2">
         <v>0.2</v>
@@ -1441,10 +1504,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -1452,7 +1515,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
@@ -1463,7 +1526,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>27</v>
@@ -1474,10 +1537,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2">
         <v>30</v>
@@ -1485,7 +1548,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>20</v>
@@ -1496,21 +1559,21 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2">
         <v>15</v>
@@ -1518,10 +1581,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2">
         <v>15</v>
@@ -1529,10 +1592,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2">
         <v>30</v>
@@ -1543,7 +1606,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2">
         <v>25</v>
@@ -1554,7 +1617,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2">
         <v>30</v>
@@ -1565,7 +1628,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2">
         <v>400</v>
@@ -1576,79 +1639,79 @@
         <v>53</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>53</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C66" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>53</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>53</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>53</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -1659,73 +1722,73 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>53</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>53</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C75" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>53</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C76" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>53</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -1734,6 +1797,133 @@
       </c>
       <c r="C78" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1938,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4C67ABA-81F2-1047-8D1A-CD03F484B1E7}">
           <x14:formula1>
             <xm:f>choise!$B$1:$B$3</xm:f>
@@ -1759,7 +1949,7 @@
           <x14:formula1>
             <xm:f>choise!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C24:C27 C11:C12 C17 C41 C46:C47</xm:sqref>
+          <xm:sqref>C24:C27 C11:C12 C17 C41 C46:C47 C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C04C9AEC-9CED-1444-B28D-0FB95F13D25E}">
           <x14:formula1>
@@ -1791,6 +1981,24 @@
           </x14:formula1>
           <xm:sqref>C57</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7666F684-30FB-A441-8F3E-FD93AB924BAE}">
+          <x14:formula1>
+            <xm:f>choise!$I$1:$I$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C81:C82</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A501244-9DD6-584D-B89C-8D906A03C822}">
+          <x14:formula1>
+            <xm:f>choise!$J$1:$J$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C88</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F75F80F-9CD1-6E44-89D2-F6CFB7A7D2FB}">
+          <x14:formula1>
+            <xm:f>choise!$K$1:$K$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C89</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1799,19 +2007,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B484732B-2182-4245-BBAD-E15204D387BA}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="82.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="b">
         <v>1</v>
       </c>
@@ -1822,22 +2030,28 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -1848,19 +2062,28 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -1868,83 +2091,86 @@
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
   </sheetData>

--- a/default_parameters.xlsx
+++ b/default_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/myrepo/metminer_snakemake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA0B9A-6E44-E441-B346-4C44444C433C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FEAAD8-33A9-8048-A1CE-D467B44703F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="15600" xr2:uid="{E6A0952F-0235-5343-997F-0FE30E216ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="149">
   <si>
     <t>process</t>
   </si>
@@ -358,12 +358,6 @@
   </si>
   <si>
     <t>n_session</t>
-  </si>
-  <si>
-    <t>QC_01|QC_02|S_36</t>
-  </si>
-  <si>
-    <t>QC_03|S_36</t>
   </si>
   <si>
     <t>ms1.match.ppm</t>
@@ -884,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9AFBEB-5710-B84D-8EB7-307BB78CAD28}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1113,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
@@ -1133,7 +1127,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -1150,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1164,7 +1158,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1231,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -1258,9 +1252,6 @@
       <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D30" t="s">
         <v>63</v>
       </c>
@@ -1272,9 +1263,6 @@
       <c r="B31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D31" t="s">
         <v>63</v>
       </c>
@@ -1606,7 +1594,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2">
         <v>25</v>
@@ -1617,7 +1605,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2">
         <v>30</v>
@@ -1628,7 +1616,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2">
         <v>400</v>
@@ -1639,7 +1627,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2">
         <v>0.5</v>
@@ -1650,7 +1638,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2">
         <v>0.3</v>
@@ -1661,7 +1649,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2">
         <v>0.6</v>
@@ -1672,7 +1660,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2">
         <v>0.1</v>
@@ -1683,7 +1671,7 @@
         <v>53</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -1694,7 +1682,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="2">
         <v>30</v>
@@ -1705,10 +1693,10 @@
         <v>53</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1727,7 +1715,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2">
         <v>0.25</v>
@@ -1738,7 +1726,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2">
         <v>0.25</v>
@@ -1749,7 +1737,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" s="2">
         <v>0.5</v>
@@ -1760,7 +1748,7 @@
         <v>53</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C75" s="2">
         <v>0.5</v>
@@ -1771,7 +1759,7 @@
         <v>53</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C76" s="2">
         <v>4</v>
@@ -1782,10 +1770,10 @@
         <v>53</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,60 +1789,60 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C83" s="2" t="b">
         <v>1</v>
@@ -1862,10 +1850,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -1873,10 +1861,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C85" s="2">
         <v>0.05</v>
@@ -1884,10 +1872,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -1895,10 +1883,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -1906,24 +1894,24 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2042,13 +2030,13 @@
         <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
         <v>147</v>
-      </c>
-      <c r="K1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2074,13 +2062,13 @@
         <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
         <v>148</v>
-      </c>
-      <c r="K2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2097,7 +2085,7 @@
         <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
